--- a/doc/XXL-CONF架构图.xlsx
+++ b/doc/XXL-CONF架构图.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="540" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="860" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="XXL-CONF 架构图" sheetId="1" r:id="rId1"/>
+    <sheet name="ZK中配置结构" sheetId="2" r:id="rId2"/>
+    <sheet name="配置加载流程图" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -685,11 +687,6 @@
             </a:rPr>
             <a:t>备份</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
-            <a:latin typeface="STSong" charset="-122"/>
-            <a:ea typeface="STSong" charset="-122"/>
-            <a:cs typeface="STSong" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -848,7 +845,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
             <a:t>同步备份配置变动信息</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1020,7 +1016,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>配置信息</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1648,6 +1643,2584 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="165100"/>
+          <a:ext cx="10439400" cy="6680200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>XXL-CONF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>配置项存储结构（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>ZK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3086100" y="1193800"/>
+          <a:ext cx="63500" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直线连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749300" y="1181100"/>
+          <a:ext cx="2425700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3213100" y="1993900"/>
+          <a:ext cx="2425700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直线连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="2997200"/>
+          <a:ext cx="2425700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3213100" y="3949700"/>
+          <a:ext cx="2425700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直线连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3187700" y="4876800"/>
+          <a:ext cx="2425700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="736600"/>
+          <a:ext cx="1879600" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>配置中心根目录</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="1320800"/>
+          <a:ext cx="2463800" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>/redis.address</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>(192.168.0.1:6379)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3225800" y="2273300"/>
+          <a:ext cx="2463800" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>/autumu.activity.switch</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>(true)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文本框 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3225800" y="3289300"/>
+          <a:ext cx="2463800" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>/registry.sms.send.limit</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>(3)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3251200" y="4229100"/>
+          <a:ext cx="2463800" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>/login.white.user.list</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>(zhangsan,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>lisi,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>xiaoming</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="876300"/>
+          <a:ext cx="3124200" cy="2882900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>watchedEvent</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>-----------------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>NodeCreated</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>NodeDeleted</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>NodeDataChanged</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="152400"/>
+          <a:ext cx="10439400" cy="8420100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>XXL-CONF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> 配置加载流程</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="椭圆 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1473200" y="673100"/>
+          <a:ext cx="723900" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>加载配置</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1016000" y="1955800"/>
+          <a:ext cx="1663700" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>Client-API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> 发起调用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="椭圆 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1435100" y="6680200"/>
+          <a:ext cx="723900" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>返回配置</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1016000" y="3035300"/>
+          <a:ext cx="1612900" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>Ehcache</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>内查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="下箭头 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727200" y="2565400"/>
+          <a:ext cx="165100" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2146300" y="4559300"/>
+          <a:ext cx="914400" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>缓存命中</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>返回配置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="下箭头 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1701800" y="3644900"/>
+          <a:ext cx="190500" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4178300" y="2984500"/>
+          <a:ext cx="1587500" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>ZK-Client</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>ZK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>集群中配置信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="右箭头 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2692400" y="3225800"/>
+          <a:ext cx="1409700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="4762500"/>
+          <a:ext cx="1549400" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>加入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>Ehcache</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="下箭头 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="3683000"/>
+          <a:ext cx="177800" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="文本框 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2755900" y="2857500"/>
+          <a:ext cx="1041400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>缓存未命中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文本框 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="4076700"/>
+          <a:ext cx="1206500" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>ZK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>查询成功</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="直角上箭头 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2755900" y="4864100"/>
+          <a:ext cx="1828800" cy="2768600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4151"/>
+            <a:gd name="adj2" fmla="val 6871"/>
+            <a:gd name="adj3" fmla="val 17983"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="直角上箭头 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="5873750" y="3251200"/>
+          <a:ext cx="2432050" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3513"/>
+            <a:gd name="adj2" fmla="val 5407"/>
+            <a:gd name="adj3" fmla="val 13128"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="椭圆 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7797800" y="6578600"/>
+          <a:ext cx="723900" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>默认</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6667500" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文本框 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="1955800"/>
+          <a:ext cx="6667500" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>confVal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>XxlConfClient.get("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>confKey</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>", "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>查询为空时默认配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>");</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="下箭头 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="1435100"/>
+          <a:ext cx="165100" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="文本框 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="5791200"/>
+          <a:ext cx="914400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>返回配置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文本框 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="4432300"/>
+          <a:ext cx="1778000" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>ZK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>查询失败</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>返回设置的默认配置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1918,7 +4491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
@@ -1929,4 +4502,36 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/XXL-CONF架构图.xlsx
+++ b/doc/XXL-CONF架构图.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="860" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="4960" yWindow="660" windowWidth="26280" windowHeight="16020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="XXL-CONF 架构图" sheetId="1" r:id="rId1"/>
     <sheet name="ZK中配置结构" sheetId="2" r:id="rId2"/>
-    <sheet name="配置加载流程图" sheetId="3" r:id="rId3"/>
+    <sheet name="配置加载流程图（API方式）" sheetId="3" r:id="rId3"/>
+    <sheet name="配置加载流程（Bean方式）" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -38,6 +39,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -61,14 +80,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1722,18 +1745,7 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="STSong" charset="-122"/>
-              <a:ea typeface="STSong" charset="-122"/>
-              <a:cs typeface="STSong" charset="-122"/>
-            </a:rPr>
-            <a:t>配置项存储结构（</a:t>
+            <a:t> 配置项存储结构（</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
@@ -2099,7 +2111,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
             <a:t>配置中心根目录</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2727,7 +2738,40 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t> 配置加载流程</a:t>
+            <a:t> 配置加载流程（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>）</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2801,11 +2845,6 @@
             </a:rPr>
             <a:t>加载配置</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
-            <a:latin typeface="STSong" charset="-122"/>
-            <a:ea typeface="STSong" charset="-122"/>
-            <a:cs typeface="STSong" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2936,11 +2975,6 @@
             </a:rPr>
             <a:t>返回配置</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
-            <a:latin typeface="STSong" charset="-122"/>
-            <a:ea typeface="STSong" charset="-122"/>
-            <a:cs typeface="STSong" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3811,11 +3845,6 @@
             </a:rPr>
             <a:t>默认</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
-            <a:latin typeface="STSong" charset="-122"/>
-            <a:ea typeface="STSong" charset="-122"/>
-            <a:cs typeface="STSong" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3824,11 +3853,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6667500" cy="359073"/>
+    <xdr:ext cx="6896100" cy="1959511"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="文本框 27"/>
@@ -3836,8 +3865,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="1955800"/>
-          <a:ext cx="6667500" cy="359073"/>
+          <a:off x="3365500" y="622300"/>
+          <a:ext cx="6896100" cy="1959511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3879,6 +3908,65 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>方式加载配置， 可以方便的嵌入业务逻辑中</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
             <a:t>String</a:t>
           </a:r>
           <a:r>
@@ -3951,7 +4039,19 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t>XxlConfClient.get("</a:t>
+            <a:t>XxlConfClient.get("confKey", "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>查询为空时默认配置</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
@@ -3963,8 +4063,30 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t>confKey</a:t>
-          </a:r>
+            <a:t>");</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
@@ -3975,10 +4097,10 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t>", "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+            <a:t>if</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3987,10 +4109,10 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t>查询为空时默认配置</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3999,8 +4121,149 @@
               <a:ea typeface="STSong" charset="-122"/>
               <a:cs typeface="STSong" charset="-122"/>
             </a:rPr>
-            <a:t>");</a:t>
-          </a:r>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>confVal.equals("xxx")</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>TODO</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
             <a:latin typeface="STSong" charset="-122"/>
             <a:ea typeface="STSong" charset="-122"/>
@@ -4218,6 +4481,1204 @@
             </a:rPr>
             <a:t>返回设置的默认配置</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="165100"/>
+          <a:ext cx="10515600" cy="5511800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>XXL-CONF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> 配置加载流程（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9791700" cy="1159292"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546100" y="495300"/>
+          <a:ext cx="9791700" cy="1159292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>方式加载配置，可通过占位符 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>${confKey}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> 配置，实例化时将会调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>给对应属性赋值</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>&lt;bean id="configuration"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>class="com.xxl.conf.example.core.constant.Configuration"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>&lt;property name="paramByXml" value="${confKey}" /&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>&lt;/bean&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="椭圆 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="2032000"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>实例化</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="2171700"/>
+          <a:ext cx="3098800" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>PropertyPlaceholderConfigurer</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>(Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>属性解析器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="2222500"/>
+          <a:ext cx="2667000" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>StringValueResolver</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>(Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>StringString</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>解析器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右箭头 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1663700" y="2438400"/>
+          <a:ext cx="1130300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右箭头 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="2476500"/>
+          <a:ext cx="1130300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7289800" y="3759200"/>
+          <a:ext cx="2628900" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>加载</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>XXL-CONF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>配置</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="下箭头 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8432800" y="3073400"/>
+          <a:ext cx="152400" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="椭圆 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4965700" y="3708400"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="STSong" charset="-122"/>
+              <a:ea typeface="STSong" charset="-122"/>
+              <a:cs typeface="STSong" charset="-122"/>
+            </a:rPr>
+            <a:t>实例化</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右箭头 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6032500" y="4051300"/>
+          <a:ext cx="1130300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="STSong" charset="-122"/>
+            <a:ea typeface="STSong" charset="-122"/>
+            <a:cs typeface="STSong" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4491,7 +5952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
@@ -4524,8 +5985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4534,4 +5995,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>